--- a/result/interactions_download/EXCEL/Burkitt_lymphoma_only_precog.xlsx
+++ b/result/interactions_download/EXCEL/Burkitt_lymphoma_only_precog.xlsx
@@ -48,39 +48,39 @@
     <t xml:space="preserve">CD55</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP1B3</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP1B3</t>
-  </si>
-  <si>
     <t xml:space="preserve">MYL1</t>
   </si>
   <si>
     <t xml:space="preserve">GDI2</t>
   </si>
   <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC16A3</t>
   </si>
   <si>
-    <t xml:space="preserve">PTGDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLD2</t>
   </si>
   <si>
+    <t xml:space="preserve">DENND2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESDC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">IGHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">DENND2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLRC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESDC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNX8</t>
   </si>
   <si>
@@ -96,64 +96,64 @@
     <t xml:space="preserve">TSGA10</t>
   </si>
   <si>
+    <t xml:space="preserve">LIMD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNAJC1</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMD1</t>
+    <t xml:space="preserve">GK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN4IP1</t>
   </si>
   <si>
     <t xml:space="preserve">GCHFR</t>
   </si>
   <si>
-    <t xml:space="preserve">GK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP6V1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTN4IP1</t>
+    <t xml:space="preserve">ZNF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTSH</t>
   </si>
   <si>
     <t xml:space="preserve">NEK7</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSH</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFTN1</t>
   </si>
   <si>
     <t xml:space="preserve">CST6</t>
   </si>
   <si>
+    <t xml:space="preserve">MCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOX15</t>
   </si>
   <si>
     <t xml:space="preserve">CDC25B</t>
   </si>
   <si>
-    <t xml:space="preserve">MCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYMS</t>
   </si>
   <si>
+    <t xml:space="preserve">CCNE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEX264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCNE2</t>
   </si>
   <si>
     <t xml:space="preserve">CX3CL1</t>
@@ -666,13 +666,13 @@
         <v>2.826</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>16.5</v>
+        <v>16.0147058823529</v>
       </c>
     </row>
     <row r="3">
@@ -686,13 +686,13 @@
         <v>-2.582</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>7.9344262295082</v>
+        <v>7.80645161290323</v>
       </c>
     </row>
     <row r="4">
@@ -726,13 +726,13 @@
         <v>2.782</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>4.05</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -743,16 +743,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.191</v>
+        <v>2.935</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.84313725490196</v>
       </c>
     </row>
     <row r="7">
@@ -763,16 +763,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.935</v>
+        <v>-3.191</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>3.84313725490196</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -806,13 +806,13 @@
         <v>-2.931</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>2.38095238095238</v>
+        <v>2.32558139534884</v>
       </c>
     </row>
     <row r="10">
@@ -823,16 +823,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.936</v>
+        <v>-3.316</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.28571428571429</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
@@ -843,16 +843,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.316</v>
+        <v>-2.936</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>2.25</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -883,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.617</v>
+        <v>-2.848</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -903,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.848</v>
+        <v>-3.099</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -923,16 +923,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.099</v>
+        <v>2.763</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.78571428571429</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>2.763</v>
+        <v>-2.617</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1.78571428571429</v>
+        <v>1.77777777777778</v>
       </c>
     </row>
     <row r="17">
@@ -966,13 +966,13 @@
         <v>-2.678</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
@@ -986,13 +986,13 @@
         <v>-2.839</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19">
@@ -1006,13 +1006,13 @@
         <v>-2.758</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20">
@@ -1026,13 +1026,13 @@
         <v>-2.596</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.66666666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="21">
@@ -1063,16 +1063,16 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>3.074</v>
+        <v>2.703</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>1.38461538461538</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>2.703</v>
+        <v>3.074</v>
       </c>
       <c r="D23" t="n">
         <v>27</v>
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.28</v>
+        <v>-2.782</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.782</v>
+        <v>-2.773</v>
       </c>
       <c r="D25" t="n">
         <v>3</v>
@@ -1143,16 +1143,16 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.773</v>
+        <v>-3.335</v>
       </c>
       <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
       <c r="F26" t="n">
-        <v>1.33333333333333</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="27">
@@ -1163,16 +1163,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.335</v>
+        <v>-2.854</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1.28571428571429</v>
+        <v>1.08695652173913</v>
       </c>
     </row>
     <row r="28">
@@ -1183,16 +1183,16 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.854</v>
+        <v>-3.216</v>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.216</v>
+        <v>-3.28</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
@@ -1223,13 +1223,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>3.094</v>
+        <v>-3.181</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1243,13 +1243,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.181</v>
+        <v>-2.773</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1263,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.773</v>
+        <v>-2.799</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1283,16 +1283,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.799</v>
+        <v>3.094</v>
       </c>
       <c r="D33" t="n">
+        <v>17</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
-        <v>2</v>
-      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="34">
@@ -1306,13 +1306,13 @@
         <v>-2.614</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="35">
@@ -1343,16 +1343,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.728</v>
+        <v>2.708</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="37">
@@ -1363,16 +1363,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>2.694</v>
+        <v>-2.728</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1383,16 +1383,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.708</v>
+        <v>2.694</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0.692307692307692</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="39">
@@ -1423,16 +1423,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2.595</v>
+        <v>3.51</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="41">
@@ -1443,16 +1443,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>3.51</v>
+        <v>2.595</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="42">
@@ -1746,13 +1746,13 @@
         <v>2.741</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.19047619047619</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="57">
@@ -1786,13 +1786,13 @@
         <v>2.693</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>-3.393</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -2452,15 +2452,15 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -2468,7 +2468,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -2500,7 +2500,7 @@
         <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2513,7 +2513,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>94</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
